--- a/DATA/Feb2018/staticSitesInfoModified.xlsx
+++ b/DATA/Feb2018/staticSitesInfoModified.xlsx
@@ -3,16 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C52D9-21BA-4D4B-9638-0B0EDBCFEE2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389D08D-3DC2-481F-A9ED-9C0A6DCE59EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -408,18 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1083</v>
       </c>
@@ -447,11 +455,14 @@
         <v>3.01</v>
       </c>
       <c r="D2" s="1">
+        <v>-2.3128625</v>
+      </c>
+      <c r="E2">
         <v>53.441212700000001</v>
       </c>
-      <c r="E2">
-        <v>-2.3128625</v>
-      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -464,7 +475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -476,7 +487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
